--- a/data/Energy costs.xlsx
+++ b/data/Energy costs.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Brabant-buurt-serious-game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF9E83A-88F5-41DD-9843-93AF15B6F15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156221D2-E770-4302-B700-87FF213364C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="552" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0DC09E48-9579-49E6-AA56-8FECFF415513}"/>
+    <workbookView xWindow="-23148" yWindow="552" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{0DC09E48-9579-49E6-AA56-8FECFF415513}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy costs" sheetId="1" r:id="rId1"/>
     <sheet name="Inhouse heat system costs" sheetId="2" r:id="rId2"/>
     <sheet name="District heating costs" sheetId="3" r:id="rId3"/>
+    <sheet name="District heating costs 2" sheetId="6" r:id="rId4"/>
+    <sheet name="Inhouse VestaMAIS" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="190">
   <si>
     <t>Jaar</t>
   </si>
@@ -267,12 +269,6 @@
     <t>Underfloor heating</t>
   </si>
   <si>
-    <t>Isolation</t>
-  </si>
-  <si>
-    <t>See energievraag en isolatie woningen</t>
-  </si>
-  <si>
     <t>Component</t>
   </si>
   <si>
@@ -343,16 +339,347 @@
   </si>
   <si>
     <t>MT-Warmtenet</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>RVb</t>
+  </si>
+  <si>
+    <t>RVp</t>
+  </si>
+  <si>
+    <t>TWb</t>
+  </si>
+  <si>
+    <t>TWp</t>
+  </si>
+  <si>
+    <t>Kb</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Dak</t>
+  </si>
+  <si>
+    <t>LeerCurve</t>
+  </si>
+  <si>
+    <t>Ki_asl_min_w</t>
+  </si>
+  <si>
+    <t>Ki_asl_max_w</t>
+  </si>
+  <si>
+    <t>Ki_asl_min_u</t>
+  </si>
+  <si>
+    <t>Ki_asl_max_u</t>
+  </si>
+  <si>
+    <t>Ki_cap_min_w</t>
+  </si>
+  <si>
+    <t>Ki_cap_max_w</t>
+  </si>
+  <si>
+    <t>Ki_cap_min_u</t>
+  </si>
+  <si>
+    <t>Ki_cap_max_u</t>
+  </si>
+  <si>
+    <t>Ki_opp_min_w</t>
+  </si>
+  <si>
+    <t>Ki_opp_max_w</t>
+  </si>
+  <si>
+    <t>Ki_opp_min_u</t>
+  </si>
+  <si>
+    <t>Ki_opp_max_u</t>
+  </si>
+  <si>
+    <t>R_OH</t>
+  </si>
+  <si>
+    <t>R_Adm</t>
+  </si>
+  <si>
+    <t>AT30</t>
+  </si>
+  <si>
+    <t>AT20</t>
+  </si>
+  <si>
+    <t>niks</t>
+  </si>
+  <si>
+    <t>aangepast</t>
+  </si>
+  <si>
+    <t>geen</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>eWP_lw</t>
+  </si>
+  <si>
+    <t>eWPlw</t>
+  </si>
+  <si>
+    <t>eWP_bw</t>
+  </si>
+  <si>
+    <t>eWPww</t>
+  </si>
+  <si>
+    <t>eWP_ll</t>
+  </si>
+  <si>
+    <t>Pellet</t>
+  </si>
+  <si>
+    <t>Bioketel</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>ZonPV_l</t>
+  </si>
+  <si>
+    <t>ZonPV_h</t>
+  </si>
+  <si>
+    <t>ZonB</t>
+  </si>
+  <si>
+    <t>H2R</t>
+  </si>
+  <si>
+    <t>Waterstof</t>
+  </si>
+  <si>
+    <t>eBoiler</t>
+  </si>
+  <si>
+    <t>Doorstroom</t>
+  </si>
+  <si>
+    <t>EWV</t>
+  </si>
+  <si>
+    <t>mWKK</t>
+  </si>
+  <si>
+    <t>Airco</t>
+  </si>
+  <si>
+    <t>BasisHWP_w</t>
+  </si>
+  <si>
+    <t>hWP</t>
+  </si>
+  <si>
+    <t>eWP_lw_u</t>
+  </si>
+  <si>
+    <t>eWP_bw_uG</t>
+  </si>
+  <si>
+    <t>eWP_bw_uK</t>
+  </si>
+  <si>
+    <t>hHR</t>
+  </si>
+  <si>
+    <t>hWP_lw_u</t>
+  </si>
+  <si>
+    <t>€/kW</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>Induction cooking</t>
+  </si>
+  <si>
+    <t>EUR/connection</t>
+  </si>
+  <si>
+    <t>https://cedelft.eu/wp-content/uploads/sites/2/2022/11/CE_Delft_210347_Warmtetenetten-in-Vesta-MAIS_DEF.pdf</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>distribution grid</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Warmteoverdrachtstation</t>
+  </si>
+  <si>
+    <t>Onderstation</t>
+  </si>
+  <si>
+    <t>Vermogen per onderstation</t>
+  </si>
+  <si>
+    <t>kw/OS</t>
+  </si>
+  <si>
+    <t>Kosten verzamelen aansluitleidingen tot onderstation</t>
+  </si>
+  <si>
+    <t>€/pand</t>
+  </si>
+  <si>
+    <t>primary grid</t>
+  </si>
+  <si>
+    <t>Grid costs</t>
+  </si>
+  <si>
+    <t>TEO source (fixed)</t>
+  </si>
+  <si>
+    <t>% of peak demand</t>
+  </si>
+  <si>
+    <t>Primary heat source share (volume)</t>
+  </si>
+  <si>
+    <t>Primary heat source share (capacity)</t>
+  </si>
+  <si>
+    <t>Secondary heat source share (capacity)</t>
+  </si>
+  <si>
+    <t>Secondary heat source share (volume)</t>
+  </si>
+  <si>
+    <t>% of volume</t>
+  </si>
+  <si>
+    <t>Inhouse costs</t>
+  </si>
+  <si>
+    <t>€/connection</t>
+  </si>
+  <si>
+    <t>Heat meter (Variable)</t>
+  </si>
+  <si>
+    <t>Heat meter (Fixed)</t>
+  </si>
+  <si>
+    <t>Heat delivery set</t>
+  </si>
+  <si>
+    <t>Booster heat pump</t>
+  </si>
+  <si>
+    <t>water-water heat pump label B</t>
+  </si>
+  <si>
+    <t>water-water heat pump utility</t>
+  </si>
+  <si>
+    <t>water-water heat pump label C/D/E</t>
+  </si>
+  <si>
+    <t>Inhouse distribution costs</t>
+  </si>
+  <si>
+    <t>Delivery system</t>
+  </si>
+  <si>
+    <t>€/m2</t>
+  </si>
+  <si>
+    <t>utility</t>
+  </si>
+  <si>
+    <t>ground-bound</t>
+  </si>
+  <si>
+    <t>high-rise</t>
+  </si>
+  <si>
+    <t>residential</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Connection costs till delivery set</t>
+  </si>
+  <si>
+    <t>ATES (fixed)</t>
+  </si>
+  <si>
+    <t>ATES (variable)</t>
+  </si>
+  <si>
+    <t>TEO source (variable)</t>
+  </si>
+  <si>
+    <t>Heat loss</t>
+  </si>
+  <si>
+    <t>GJ/connection</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>primary heat source (average)</t>
+  </si>
+  <si>
+    <t>primary heat source (low</t>
+  </si>
+  <si>
+    <t>secondary heat source</t>
+  </si>
+  <si>
+    <t>primary heat source annual costs</t>
+  </si>
+  <si>
+    <t>% of investment costs</t>
+  </si>
+  <si>
+    <t>secondary heat source annual costs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,12 +715,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -412,19 +733,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -761,7 +1089,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2436,10 +2764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF6D1B4-07BD-4D49-9C71-3B95918C3305}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,7 +2779,7 @@
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -2477,7 +2805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -2503,7 +2831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2529,7 +2857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -2555,7 +2883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2581,7 +2909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2607,7 +2935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -2634,7 +2962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -2657,7 +2985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -2680,7 +3008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -2703,30 +3031,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2737,294 +3056,3209 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F10BF8B-818B-4207-B707-5F40457BF958}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51" customWidth="1"/>
+    <col min="2" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="D2">
+        <v>12000</v>
+      </c>
+      <c r="E2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2">
+        <v>12000</v>
+      </c>
+      <c r="H2" t="s">
         <v>71</v>
       </c>
-      <c r="B2">
-        <v>12000</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="I2">
+        <v>836.14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2">
+        <v>360</v>
+      </c>
+      <c r="L2">
+        <v>267.92</v>
+      </c>
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <v>50</v>
+      </c>
+      <c r="O2" s="5">
+        <f>N2*3.6/1000</f>
+        <v>0.18</v>
+      </c>
+      <c r="P2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>72</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3">
+        <v>10000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3">
+        <v>10000</v>
+      </c>
+      <c r="H3" t="s">
         <v>71</v>
       </c>
-      <c r="E2">
-        <v>12000</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I3">
+        <v>836.14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3">
+        <v>360</v>
+      </c>
+      <c r="L3">
+        <v>267.92</v>
+      </c>
+      <c r="M3">
+        <v>30</v>
+      </c>
+      <c r="N3">
+        <v>50</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O6" si="0">N3*3.6/1000</f>
+        <v>0.18</v>
+      </c>
+      <c r="P3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>73</v>
       </c>
-      <c r="G2">
-        <v>836.14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2">
-        <v>360</v>
-      </c>
-      <c r="J2">
-        <v>267.92</v>
-      </c>
-      <c r="K2">
-        <v>30</v>
-      </c>
-      <c r="L2">
-        <v>50</v>
-      </c>
-      <c r="M2" s="5">
-        <f>L2*3.6/1000</f>
-        <v>0.18</v>
-      </c>
-      <c r="N2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3">
-        <v>10000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3">
-        <v>10000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3">
-        <v>836.14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3">
-        <v>360</v>
-      </c>
-      <c r="J3">
-        <v>267.92</v>
-      </c>
-      <c r="K3">
-        <v>30</v>
-      </c>
-      <c r="L3">
-        <v>50</v>
-      </c>
-      <c r="M3" s="5">
-        <f t="shared" ref="M3:M6" si="0">L3*3.6/1000</f>
-        <v>0.18</v>
-      </c>
-      <c r="N3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4">
+      <c r="D4">
         <v>4000</v>
       </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4">
-        <v>4000</v>
+      <c r="E4" t="s">
+        <v>70</v>
       </c>
       <c r="F4" t="s">
         <v>73</v>
       </c>
       <c r="G4">
+        <v>4000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4">
         <v>836.14</v>
       </c>
-      <c r="H4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4">
+      <c r="J4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4">
         <v>360</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>267.92</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>30</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>50</v>
       </c>
-      <c r="M4" s="5">
+      <c r="O4" s="5">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <v>270</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
         <v>76</v>
       </c>
-      <c r="B5">
+      <c r="G5">
         <v>270</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H5" t="s">
         <v>77</v>
       </c>
-      <c r="D5" t="s">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>78</v>
       </c>
-      <c r="E5">
-        <v>270</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>30</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>50</v>
       </c>
-      <c r="M5" s="5">
+      <c r="O5" s="5">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>0.85</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6">
+        <v>79</v>
+      </c>
+      <c r="D6">
         <v>271</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6">
+        <v>270</v>
+      </c>
+      <c r="H6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>78</v>
       </c>
-      <c r="E6">
-        <v>270</v>
-      </c>
-      <c r="F6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>30</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>50</v>
       </c>
-      <c r="M6" s="5">
+      <c r="O6" s="5">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>0.7</v>
       </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D10"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D11"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D12"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D13"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D14"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="9"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="9"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="9"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="9"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="9"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="9"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="9"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="9"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="9"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0F771A-2E3D-45CD-A95A-9E5395863168}">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E41" sqref="A41:E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2">
+        <v>414</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3">
+        <v>591</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4">
+        <v>132.5</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5">
+        <v>135</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6">
+        <v>3337.78</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7">
+        <v>825</v>
+      </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9">
+        <v>2.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10">
+        <v>10.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13">
+        <v>355.5</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14">
+        <v>250</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15">
+        <v>1300</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19">
+        <v>220</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
+        <v>150000</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
+        <v>115</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2450</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1450</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2450</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="8">
+        <v>900</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1.35</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1500</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="9">
+        <f>AVERAGE(2225.98,2560.84)</f>
+        <v>2393.41</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="9">
+        <v>4500</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="9">
+        <v>7000</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="9">
+        <v>700</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="9">
+        <v>2500</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1500</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="9">
+        <f>AVERAGE(401.34,2014.85)</f>
+        <v>1208.095</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="9">
+        <f>AVERAGE(957.21,3221.92)</f>
+        <v>2089.5650000000001</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="9">
+        <v>90.576999999999998</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF53E2B-6F15-47C0-BA1B-2E949B426085}">
+  <dimension ref="A1:Y27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>564.06333329999995</v>
+      </c>
+      <c r="K2">
+        <v>619.83333330000005</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>26.552700000000002</v>
+      </c>
+      <c r="Q2">
+        <v>26.552700000000002</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5">
+        <v>1692.19</v>
+      </c>
+      <c r="K5">
+        <v>1859.5</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>79.658100000000005</v>
+      </c>
+      <c r="Q5">
+        <v>79.658100000000005</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>4.65E-2</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6">
+        <v>1692.19</v>
+      </c>
+      <c r="K6">
+        <v>1859.5</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>79.658100000000005</v>
+      </c>
+      <c r="Q6">
+        <v>79.658100000000005</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>4.65E-2</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7">
+        <v>5359</v>
+      </c>
+      <c r="K7">
+        <v>4637</v>
+      </c>
+      <c r="L7">
+        <v>3768.75</v>
+      </c>
+      <c r="M7">
+        <v>6281.25</v>
+      </c>
+      <c r="N7">
+        <v>320</v>
+      </c>
+      <c r="O7">
+        <v>500</v>
+      </c>
+      <c r="P7">
+        <v>555</v>
+      </c>
+      <c r="Q7">
+        <v>925</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8">
+        <v>4628</v>
+      </c>
+      <c r="K8">
+        <v>8460</v>
+      </c>
+      <c r="L8">
+        <v>5800</v>
+      </c>
+      <c r="M8">
+        <v>5800</v>
+      </c>
+      <c r="N8">
+        <v>899</v>
+      </c>
+      <c r="O8">
+        <v>753</v>
+      </c>
+      <c r="P8">
+        <v>420</v>
+      </c>
+      <c r="Q8">
+        <v>420</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0.4</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9">
+        <v>2975.21</v>
+      </c>
+      <c r="K9">
+        <v>4793.3900000000003</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>13.77</v>
+      </c>
+      <c r="U9">
+        <v>44.08</v>
+      </c>
+      <c r="V9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1074.3800000000001</v>
+      </c>
+      <c r="K10">
+        <v>3305.79</v>
+      </c>
+      <c r="L10">
+        <v>1074.3800000000001</v>
+      </c>
+      <c r="M10">
+        <v>3305.79</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0.04</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>5331</v>
+      </c>
+      <c r="K11">
+        <v>17716.150000000001</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>41</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>40.9</v>
+      </c>
+      <c r="U11">
+        <v>40.9</v>
+      </c>
+      <c r="V11">
+        <v>0.01</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>371.9</v>
+      </c>
+      <c r="O12">
+        <v>371.9</v>
+      </c>
+      <c r="P12">
+        <v>371.9</v>
+      </c>
+      <c r="Q12">
+        <v>371.9</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1000</v>
+      </c>
+      <c r="O13">
+        <v>1250</v>
+      </c>
+      <c r="P13">
+        <v>957</v>
+      </c>
+      <c r="Q13">
+        <v>957</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1000</v>
+      </c>
+      <c r="O14">
+        <v>1250</v>
+      </c>
+      <c r="P14">
+        <v>957</v>
+      </c>
+      <c r="Q14">
+        <v>957</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1350</v>
+      </c>
+      <c r="K15">
+        <v>1350</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>161</v>
+      </c>
+      <c r="O15">
+        <v>161</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="U15">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="V15">
+        <v>0.02</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16">
+        <v>1792.19</v>
+      </c>
+      <c r="K16">
+        <v>2359.5</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>95.59</v>
+      </c>
+      <c r="Q16">
+        <v>95.59</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>4.65E-2</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1112</v>
+      </c>
+      <c r="K17">
+        <v>1774.85</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="U17">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="V17">
+        <v>0.03</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>826.45</v>
+      </c>
+      <c r="K18">
+        <v>826.45</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>5.51</v>
+      </c>
+      <c r="U18">
+        <v>5.51</v>
+      </c>
+      <c r="V18">
+        <v>0.06</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19">
+        <v>1487.6</v>
+      </c>
+      <c r="K19">
+        <v>3140.5</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>15.43</v>
+      </c>
+      <c r="U19">
+        <v>15.43</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20">
+        <v>9504.1299999999992</v>
+      </c>
+      <c r="K20">
+        <v>16963.310000000001</v>
+      </c>
+      <c r="L20">
+        <v>134802.37</v>
+      </c>
+      <c r="M20">
+        <v>134802.37</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>88.22</v>
+      </c>
+      <c r="U20">
+        <v>88.22</v>
+      </c>
+      <c r="V20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1343</v>
+      </c>
+      <c r="K21">
+        <v>2025</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>11.23</v>
+      </c>
+      <c r="U21">
+        <v>11.23</v>
+      </c>
+      <c r="V21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22">
+        <v>2315</v>
+      </c>
+      <c r="K22">
+        <v>2315</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>250</v>
+      </c>
+      <c r="O22">
+        <v>250</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>3768.75</v>
+      </c>
+      <c r="M23">
+        <v>6281.25</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>555</v>
+      </c>
+      <c r="Q23">
+        <v>925</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0.02</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>113</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>153857</v>
+      </c>
+      <c r="M24">
+        <v>256428</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>293</v>
+      </c>
+      <c r="Q24">
+        <v>488</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0.01</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0.4</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>5257</v>
+      </c>
+      <c r="M25">
+        <v>8761</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1170</v>
+      </c>
+      <c r="Q25">
+        <v>1950</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0.01</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0.4</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26">
+        <v>1692.19</v>
+      </c>
+      <c r="K26">
+        <v>1859.5</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>79.658100000000005</v>
+      </c>
+      <c r="Q26">
+        <v>79.658100000000005</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>3768.75</v>
+      </c>
+      <c r="M27">
+        <v>6281.25</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>555</v>
+      </c>
+      <c r="Q27">
+        <v>925</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0.02</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Energy costs.xlsx
+++ b/data/Energy costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Brabant-buurt-serious-game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156221D2-E770-4302-B700-87FF213364C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AEFEBD-9D35-4E14-A0FA-C0C01238DB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="552" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{0DC09E48-9579-49E6-AA56-8FECFF415513}"/>
+    <workbookView xWindow="-23148" yWindow="552" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0DC09E48-9579-49E6-AA56-8FECFF415513}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy costs" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="189">
   <si>
     <t>Jaar</t>
   </si>
@@ -548,9 +548,6 @@
     <t>Kosten verzamelen aansluitleidingen tot onderstation</t>
   </si>
   <si>
-    <t>€/pand</t>
-  </si>
-  <si>
     <t>primary grid</t>
   </si>
   <si>
@@ -626,9 +623,6 @@
     <t>residential</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>Connection costs till delivery set</t>
   </si>
   <si>
@@ -669,15 +663,19 @@
   </si>
   <si>
     <t>secondary heat source annual costs</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -738,7 +736,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -750,6 +748,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1088,7 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F23083-9044-45A1-A680-74930665CF4B}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
@@ -2766,7 +2767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF6D1B4-07BD-4D49-9C71-3B95918C3305}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -3564,242 +3565,241 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0F771A-2E3D-45CD-A95A-9E5395863168}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E41" sqref="A41:E41"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>141</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>414</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3">
+        <v>149</v>
+      </c>
+      <c r="D3" s="4">
         <v>591</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>144</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>132.5</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>145</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>135</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>148</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>3337.78</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>146</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>825</v>
       </c>
       <c r="E7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
         <v>142</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="12">
         <v>2.5</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
         <v>143</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="12">
         <v>10.5</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" s="6"/>
+        <v>182</v>
+      </c>
       <c r="C12" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>150</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" s="6"/>
+        <v>182</v>
+      </c>
       <c r="C13" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>355.5</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="6"/>
+        <v>183</v>
+      </c>
       <c r="C14" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>250</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15">
+      <c r="C15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="4">
         <v>1300</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7">
+        <v>185</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="1">
         <v>0.05</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7">
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="1">
         <v>0.01</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6">
+        <v>151</v>
+      </c>
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="13">
         <v>100000</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -3808,11 +3808,12 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19">
+        <v>177</v>
+      </c>
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="4">
         <v>220</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -3821,11 +3822,12 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6">
+        <v>175</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="13">
         <v>150000</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -3834,11 +3836,12 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6">
+        <v>176</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="13">
         <v>115</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -3847,142 +3850,148 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7">
+        <v>154</v>
+      </c>
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="1">
         <v>0.3</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7">
+        <v>155</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="1">
         <v>0.75</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7">
+        <v>153</v>
+      </c>
+      <c r="C25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="1">
         <v>0.15</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="C26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="10">
+        <v>171</v>
+      </c>
+      <c r="C27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="13">
         <v>2450</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" s="10">
+        <v>172</v>
+      </c>
+      <c r="C28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="13">
         <v>1450</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="10">
+        <v>170</v>
+      </c>
+      <c r="C29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="13">
         <v>2450</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" s="8">
+        <v>173</v>
+      </c>
+      <c r="C30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="9">
         <v>900</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D31" s="8">
+        <v>173</v>
+      </c>
+      <c r="C31" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="11">
         <v>1.35</v>
       </c>
       <c r="E31" s="6" t="s">
@@ -3991,61 +4000,61 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" t="s">
-        <v>174</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" s="8">
+        <v>173</v>
+      </c>
+      <c r="C32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="9">
         <v>1300</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="9">
         <v>2500</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="9">
         <v>1500</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
         <v>142</v>
@@ -4055,15 +4064,15 @@
         <v>2393.41</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
         <v>142</v>
@@ -4072,15 +4081,15 @@
         <v>4500</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
         <v>142</v>
@@ -4089,15 +4098,15 @@
         <v>7000</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C38" t="s">
         <v>142</v>
@@ -4111,10 +4120,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s">
         <v>142</v>
@@ -4123,15 +4132,15 @@
         <v>2500</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C40" t="s">
         <v>142</v>
@@ -4140,15 +4149,15 @@
         <v>1500</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
         <v>142</v>
@@ -4158,15 +4167,15 @@
         <v>1208.095</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C42" t="s">
         <v>142</v>
@@ -4176,15 +4185,15 @@
         <v>2089.5650000000001</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C43" t="s">
         <v>142</v>
@@ -4193,7 +4202,7 @@
         <v>90.576999999999998</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/data/Energy costs.xlsx
+++ b/data/Energy costs.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Brabant-buurt-serious-game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AEFEBD-9D35-4E14-A0FA-C0C01238DB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2D1BFB-FEDA-4629-9D4E-99FC06AA5E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="552" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0DC09E48-9579-49E6-AA56-8FECFF415513}"/>
+    <workbookView xWindow="-23148" yWindow="552" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0DC09E48-9579-49E6-AA56-8FECFF415513}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy costs" sheetId="1" r:id="rId1"/>
     <sheet name="Inhouse heat system costs" sheetId="2" r:id="rId2"/>
-    <sheet name="District heating costs" sheetId="3" r:id="rId3"/>
-    <sheet name="District heating costs 2" sheetId="6" r:id="rId4"/>
-    <sheet name="Inhouse VestaMAIS" sheetId="4" r:id="rId5"/>
+    <sheet name="District heating costs" sheetId="6" r:id="rId3"/>
+    <sheet name="Inhouse VestaMAIS" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="212">
   <si>
     <t>Jaar</t>
   </si>
@@ -269,78 +269,9 @@
     <t>Underfloor heating</t>
   </si>
   <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>Aansluitkosten</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>aansluitkosten</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>eenmalige_aansluitbijdragen</t>
-  </si>
-  <si>
-    <t>unit_1</t>
-  </si>
-  <si>
-    <t>onderhoudskosten_aansluiting_jaar</t>
-  </si>
-  <si>
-    <t>periodiek_nettarief_aansluiting_jaar</t>
-  </si>
-  <si>
-    <t>Levensduur</t>
-  </si>
-  <si>
-    <t>Leveringskosten Warmte (EUR/GJ)</t>
-  </si>
-  <si>
-    <t>Leveringskosten warmte (Eur/kWh)</t>
-  </si>
-  <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>Warmteaansluiting grondgebonden</t>
-  </si>
-  <si>
-    <t>€/aansluiting</t>
-  </si>
-  <si>
-    <t>/aansluiting</t>
-  </si>
-  <si>
-    <t>Warmteaansluiting gestapeld</t>
-  </si>
-  <si>
-    <t>Warmteaansluiting collectief</t>
-  </si>
-  <si>
-    <t>LT-Warmtenet</t>
-  </si>
-  <si>
     <t>€/m</t>
   </si>
   <si>
-    <t>Warmtenet</t>
-  </si>
-  <si>
-    <t>/m</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>MT-Warmtenet</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -666,15 +597,152 @@
   </si>
   <si>
     <t>all</t>
+  </si>
+  <si>
+    <t>K_kW_min</t>
+  </si>
+  <si>
+    <t>K_kW_max</t>
+  </si>
+  <si>
+    <t>MWth_min</t>
+  </si>
+  <si>
+    <t>JaarKosten</t>
+  </si>
+  <si>
+    <t>CO2_2010</t>
+  </si>
+  <si>
+    <t>CO2_2020</t>
+  </si>
+  <si>
+    <t>CO2_2030</t>
+  </si>
+  <si>
+    <t>CO2_2040</t>
+  </si>
+  <si>
+    <t>CO2_2050</t>
+  </si>
+  <si>
+    <t>NOx_2010</t>
+  </si>
+  <si>
+    <t>NOx_2020</t>
+  </si>
+  <si>
+    <t>NOx_2030</t>
+  </si>
+  <si>
+    <t>NOx_2040</t>
+  </si>
+  <si>
+    <t>NOx_2050</t>
+  </si>
+  <si>
+    <t>SO2_2010</t>
+  </si>
+  <si>
+    <t>SO2_2020</t>
+  </si>
+  <si>
+    <t>SO2_2030</t>
+  </si>
+  <si>
+    <t>SO2_2040</t>
+  </si>
+  <si>
+    <t>SO2_2050</t>
+  </si>
+  <si>
+    <t>VOS_2010</t>
+  </si>
+  <si>
+    <t>VOS_2020</t>
+  </si>
+  <si>
+    <t>VOS_2030</t>
+  </si>
+  <si>
+    <t>VOS_2040</t>
+  </si>
+  <si>
+    <t>VOS_2050</t>
+  </si>
+  <si>
+    <t>TS_2010</t>
+  </si>
+  <si>
+    <t>TS_2020</t>
+  </si>
+  <si>
+    <t>TS_2030</t>
+  </si>
+  <si>
+    <t>TS_2040</t>
+  </si>
+  <si>
+    <t>TS_2050</t>
+  </si>
+  <si>
+    <t>STEG</t>
+  </si>
+  <si>
+    <t>Kolen</t>
+  </si>
+  <si>
+    <t>Gasmotor</t>
+  </si>
+  <si>
+    <t>Gasturbine</t>
+  </si>
+  <si>
+    <t>Conventioneel</t>
+  </si>
+  <si>
+    <t>Industrie</t>
+  </si>
+  <si>
+    <t>Raffinaderij</t>
+  </si>
+  <si>
+    <t>KVSTEG</t>
+  </si>
+  <si>
+    <t>AVI</t>
+  </si>
+  <si>
+    <t>BMC</t>
+  </si>
+  <si>
+    <t>Kern</t>
+  </si>
+  <si>
+    <t>WijkWKK</t>
+  </si>
+  <si>
+    <t>Geothermie</t>
+  </si>
+  <si>
+    <t>BioWKK</t>
+  </si>
+  <si>
+    <t>HulpKetel</t>
+  </si>
+  <si>
+    <t>System lifetime</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -736,18 +804,14 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3034,19 +3098,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="F11">
         <v>1200</v>
       </c>
       <c r="G11" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="H11">
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3056,519 +3120,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F10BF8B-818B-4207-B707-5F40457BF958}">
-  <dimension ref="A1:P49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0F771A-2E3D-45CD-A95A-9E5395863168}">
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2">
-        <v>12000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2">
-        <v>12000</v>
-      </c>
-      <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2">
-        <v>836.14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2">
-        <v>360</v>
-      </c>
-      <c r="L2">
-        <v>267.92</v>
-      </c>
-      <c r="M2">
-        <v>30</v>
-      </c>
-      <c r="N2">
-        <v>50</v>
-      </c>
-      <c r="O2" s="5">
-        <f>N2*3.6/1000</f>
-        <v>0.18</v>
-      </c>
-      <c r="P2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3">
-        <v>10000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3">
-        <v>10000</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3">
-        <v>836.14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3">
-        <v>360</v>
-      </c>
-      <c r="L3">
-        <v>267.92</v>
-      </c>
-      <c r="M3">
-        <v>30</v>
-      </c>
-      <c r="N3">
-        <v>50</v>
-      </c>
-      <c r="O3" s="5">
-        <f t="shared" ref="O3:O6" si="0">N3*3.6/1000</f>
-        <v>0.18</v>
-      </c>
-      <c r="P3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4">
-        <v>4000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4">
-        <v>4000</v>
-      </c>
-      <c r="H4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4">
-        <v>836.14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4">
-        <v>360</v>
-      </c>
-      <c r="L4">
-        <v>267.92</v>
-      </c>
-      <c r="M4">
-        <v>30</v>
-      </c>
-      <c r="N4">
-        <v>50</v>
-      </c>
-      <c r="O4" s="5">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="P4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5">
-        <v>270</v>
-      </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5">
-        <v>270</v>
-      </c>
-      <c r="H5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>30</v>
-      </c>
-      <c r="N5">
-        <v>50</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="P5">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6">
-        <v>271</v>
-      </c>
-      <c r="E6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6">
-        <v>270</v>
-      </c>
-      <c r="H6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>30</v>
-      </c>
-      <c r="N6">
-        <v>50</v>
-      </c>
-      <c r="O6" s="5">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="P6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D10"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D11"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D12"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D13"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D14"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="9"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="9"/>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="9"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="9"/>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="9"/>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D45" s="9"/>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D46" s="9"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D47" s="9"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="9"/>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0F771A-2E3D-45CD-A95A-9E5395863168}">
-  <dimension ref="A1:E43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3580,16 +3136,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>39</v>
@@ -3597,612 +3153,623 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="D2" s="4">
         <v>414</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>75</v>
+      <c r="E2" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="D3" s="4">
         <v>591</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>75</v>
+      <c r="E3" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="D4" s="4">
         <v>132.5</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>135</v>
+      <c r="E4" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D5" s="4">
         <v>135</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>135</v>
+      <c r="E5" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="D6" s="4">
         <v>3337.78</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>159</v>
+      <c r="E6" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="D7" s="4">
         <v>825</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>178</v>
+      <c r="A9" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="12">
+        <v>119</v>
+      </c>
+      <c r="D9" s="8">
         <v>2.5</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>178</v>
+      <c r="A10" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="12">
+        <v>120</v>
+      </c>
+      <c r="D10" s="8">
         <v>10.5</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>142</v>
+      <c r="A12" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="D12" s="4">
         <v>150</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>135</v>
+      <c r="E12" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>143</v>
+      <c r="A13" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="D13" s="4">
         <v>355.5</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>135</v>
+      <c r="E13" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>143</v>
+      <c r="A14" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="D14" s="4">
         <v>250</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>135</v>
+      <c r="E14" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="D15" s="4">
-        <v>1300</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>135</v>
+        <v>60</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>185</v>
+      <c r="A16" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="D16" s="1">
         <v>0.05</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>186</v>
+      <c r="E16" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="D17" s="1">
         <v>0.01</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>186</v>
+      <c r="E17" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>151</v>
+      <c r="A18" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="13">
+        <v>165</v>
+      </c>
+      <c r="D18" s="9">
         <v>100000</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>136</v>
+      <c r="E18" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>177</v>
+      <c r="A19" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="D19" s="4">
         <v>220</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>135</v>
+      <c r="E19" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>175</v>
+      <c r="A20" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D20" s="13">
+        <v>165</v>
+      </c>
+      <c r="D20" s="9">
         <v>150000</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>136</v>
+      <c r="E20" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>176</v>
+      <c r="A21" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D21" s="13">
+        <v>165</v>
+      </c>
+      <c r="D21" s="9">
         <v>115</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>135</v>
+      <c r="E21" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>154</v>
+      <c r="A22" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="D22" s="1">
         <v>0.3</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>152</v>
+      <c r="E22" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>155</v>
+      <c r="A23" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="D23" s="1">
         <v>0.75</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>152</v>
+      <c r="E23" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>156</v>
+      <c r="A24" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="D24" s="1">
         <v>0.85</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>157</v>
+      <c r="E24" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>153</v>
+      <c r="A25" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="D25" s="1">
         <v>0.15</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>157</v>
+      <c r="E25" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>171</v>
+      <c r="A27" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" s="13">
+        <v>165</v>
+      </c>
+      <c r="D27" s="9">
         <v>2450</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>159</v>
+      <c r="E27" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>172</v>
+      <c r="A28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
-      </c>
-      <c r="D28" s="13">
+        <v>165</v>
+      </c>
+      <c r="D28" s="9">
         <v>1450</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>159</v>
+      <c r="E28" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>170</v>
+      <c r="A29" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C29" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" s="13">
+        <v>165</v>
+      </c>
+      <c r="D29" s="9">
         <v>2450</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>159</v>
+      <c r="E29" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>161</v>
+      <c r="A30" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
-      </c>
-      <c r="D30" s="9">
+        <v>165</v>
+      </c>
+      <c r="D30" s="6">
         <v>900</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>159</v>
+      <c r="E30" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>160</v>
+      <c r="A31" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31" s="11">
+        <v>165</v>
+      </c>
+      <c r="D31" s="7">
         <v>1.35</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>135</v>
+      <c r="E31" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>162</v>
+      <c r="A32" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="B32" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
-      </c>
-      <c r="D32" s="9">
+        <v>165</v>
+      </c>
+      <c r="D32" s="6">
         <v>1300</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>159</v>
+      <c r="E32" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="9">
+        <v>144</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="6">
         <v>2500</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>159</v>
+      <c r="E33" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="9">
+        <v>144</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="6">
         <v>1500</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>159</v>
+      <c r="E34" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="9">
+        <v>119</v>
+      </c>
+      <c r="D35" s="6">
         <f>AVERAGE(2225.98,2560.84)</f>
         <v>2393.41</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>159</v>
+      <c r="E35" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="9">
+        <v>119</v>
+      </c>
+      <c r="D36" s="6">
         <v>4500</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>159</v>
+      <c r="E36" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" s="9">
+        <v>119</v>
+      </c>
+      <c r="D37" s="6">
         <v>7000</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>159</v>
+      <c r="E37" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="9">
+        <v>119</v>
+      </c>
+      <c r="D38" s="6">
         <v>700</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>135</v>
+      <c r="E38" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="9">
+        <v>119</v>
+      </c>
+      <c r="D39" s="6">
         <v>2500</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>159</v>
+      <c r="E39" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
-      </c>
-      <c r="D40" s="9">
+        <v>119</v>
+      </c>
+      <c r="D40" s="6">
         <v>1500</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>159</v>
+      <c r="E40" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="9">
+        <v>119</v>
+      </c>
+      <c r="D41" s="6">
         <f>AVERAGE(401.34,2014.85)</f>
         <v>1208.095</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>159</v>
+      <c r="E41" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="9">
+        <v>119</v>
+      </c>
+      <c r="D42" s="6">
         <f>AVERAGE(957.21,3221.92)</f>
         <v>2089.5650000000001</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>159</v>
+      <c r="E42" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
-      </c>
-      <c r="D43" s="9">
+        <v>119</v>
+      </c>
+      <c r="D43" s="6">
         <v>90.576999999999998</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>169</v>
+      <c r="E43" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" s="6">
+        <v>30</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4210,7 +3777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF53E2B-6F15-47C0-BA1B-2E949B426085}">
   <dimension ref="A1:Y27"/>
   <sheetViews>
@@ -4225,84 +3792,84 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" t="s">
+      <c r="Y1" t="s">
         <v>81</v>
-      </c>
-      <c r="C1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T1" t="s">
-        <v>99</v>
-      </c>
-      <c r="U1" t="s">
-        <v>100</v>
-      </c>
-      <c r="V1" t="s">
-        <v>101</v>
-      </c>
-      <c r="W1" t="s">
-        <v>102</v>
-      </c>
-      <c r="X1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4376,7 +3943,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4450,7 +4017,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4524,7 +4091,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4548,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="J5">
         <v>1692.19</v>
@@ -4601,7 +4168,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4625,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="J6">
         <v>1692.19</v>
@@ -4678,7 +4245,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4702,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="J7">
         <v>5359</v>
@@ -4755,7 +4322,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4779,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J8">
         <v>4628</v>
@@ -4832,7 +4399,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4856,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="J9">
         <v>2975.21</v>
@@ -4909,7 +4476,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -4983,7 +4550,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5057,7 +4624,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -5131,7 +4698,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -5205,7 +4772,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5279,7 +4846,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5353,7 +4920,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -5377,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="J16">
         <v>1792.19</v>
@@ -5430,7 +4997,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -5504,7 +5071,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5578,7 +5145,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5602,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="J19">
         <v>1487.6</v>
@@ -5655,7 +5222,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -5679,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="J20">
         <v>9504.1299999999992</v>
@@ -5732,7 +5299,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5806,7 +5373,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -5830,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="J22">
         <v>2315</v>
@@ -5883,7 +5450,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -5907,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -5960,7 +5527,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -5984,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -6037,7 +5604,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6061,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -6114,7 +5681,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6138,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="J26">
         <v>1692.19</v>
@@ -6191,7 +5758,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -6215,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -6270,4 +5837,837 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F353B49A-E63A-4F74-9D5F-AFCCEE4A4297}">
+  <dimension ref="A1:AD19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>181</v>
+      </c>
+      <c r="R1" t="s">
+        <v>182</v>
+      </c>
+      <c r="S1" t="s">
+        <v>183</v>
+      </c>
+      <c r="T1" t="s">
+        <v>184</v>
+      </c>
+      <c r="U1" t="s">
+        <v>185</v>
+      </c>
+      <c r="V1" t="s">
+        <v>186</v>
+      </c>
+      <c r="W1" t="s">
+        <v>187</v>
+      </c>
+      <c r="X1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2">
+        <v>175</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>175</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4">
+        <v>800</v>
+      </c>
+      <c r="C4">
+        <v>1800</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5">
+        <v>175</v>
+      </c>
+      <c r="C5">
+        <v>185</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6">
+        <v>175</v>
+      </c>
+      <c r="C6">
+        <v>185</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7">
+        <v>225</v>
+      </c>
+      <c r="C7">
+        <v>275</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8">
+        <v>225</v>
+      </c>
+      <c r="C8">
+        <v>275</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <v>175</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10">
+        <v>150</v>
+      </c>
+      <c r="C10">
+        <v>175</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11">
+        <v>150</v>
+      </c>
+      <c r="C11">
+        <v>175</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13">
+        <v>800</v>
+      </c>
+      <c r="C13">
+        <v>1800</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0.01</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>28</v>
+      </c>
+      <c r="L13">
+        <v>28</v>
+      </c>
+      <c r="M13">
+        <v>28</v>
+      </c>
+      <c r="N13">
+        <v>28</v>
+      </c>
+      <c r="O13">
+        <v>28</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0.42</v>
+      </c>
+      <c r="V13">
+        <v>0.42</v>
+      </c>
+      <c r="W13">
+        <v>0.42</v>
+      </c>
+      <c r="X13">
+        <v>0.42</v>
+      </c>
+      <c r="Y13">
+        <v>0.42</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14">
+        <v>1523</v>
+      </c>
+      <c r="C14">
+        <v>1523</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15">
+        <v>415</v>
+      </c>
+      <c r="C15">
+        <v>415</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>49</v>
+      </c>
+      <c r="L15">
+        <v>49</v>
+      </c>
+      <c r="M15">
+        <v>49</v>
+      </c>
+      <c r="N15">
+        <v>49</v>
+      </c>
+      <c r="O15">
+        <v>49</v>
+      </c>
+      <c r="P15">
+        <v>0.1</v>
+      </c>
+      <c r="Q15">
+        <v>0.1</v>
+      </c>
+      <c r="R15">
+        <v>0.1</v>
+      </c>
+      <c r="S15">
+        <v>0.1</v>
+      </c>
+      <c r="T15">
+        <v>0.1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16">
+        <v>800</v>
+      </c>
+      <c r="C16">
+        <v>1800</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.01</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
+      <c r="N16">
+        <v>20</v>
+      </c>
+      <c r="O16">
+        <v>20</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17">
+        <v>20</v>
+      </c>
+      <c r="L17">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="N17">
+        <v>20</v>
+      </c>
+      <c r="O17">
+        <v>20</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
+      <c r="M18">
+        <v>20</v>
+      </c>
+      <c r="N18">
+        <v>20</v>
+      </c>
+      <c r="O18">
+        <v>20</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>20</v>
+      </c>
+      <c r="M19">
+        <v>20</v>
+      </c>
+      <c r="N19">
+        <v>20</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>